--- a/form4/belem_atualizado_form4.xlsx
+++ b/form4/belem_atualizado_form4.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="11.24" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="12.24" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="01.25" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="02.25" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="03.25" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="04.25" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="05.25" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="06.25" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="07.25" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="08.25" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="09.25" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="10.25" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="11.25" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="12.25" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="irregulares" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="11.24" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="12.24" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="01.25" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="02.25" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="03.25" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="04.25" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="05.25" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="06.25" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="07.25" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="08.25" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="09.25" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="10.25" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="11.25" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="12.25" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="irregulares" sheetId="15" state="visible" r:id="rId15"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/form4/belem_atualizado_form4.xlsx
+++ b/form4/belem_atualizado_form4.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="11.24" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="12.24" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="01.25" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="02.25" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="03.25" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="04.25" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="05.25" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="06.25" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="07.25" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="08.25" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="09.25" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="10.25" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="11.25" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="12.25" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="irregulares" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="11.24" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="12.24" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="01.25" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="02.25" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="03.25" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="04.25" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="05.25" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="06.25" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="07.25" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="08.25" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="09.25" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="10.25" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="11.25" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="12.25" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="irregulares" sheetId="15" state="visible" r:id="rId15"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/form4/belem_atualizado_form4.xlsx
+++ b/form4/belem_atualizado_form4.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="11.24" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="12.24" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="01.25" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="02.25" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="03.25" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="04.25" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="05.25" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="06.25" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="07.25" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="08.25" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="09.25" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="10.25" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="11.25" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="12.25" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="irregulares" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="11.24" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="12.24" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="01.25" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="02.25" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="03.25" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="04.25" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="05.25" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="06.25" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="07.25" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="08.25" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="09.25" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="10.25" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="11.25" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="12.25" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="irregulares" sheetId="15" state="visible" r:id="rId15"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -55,7 +55,7 @@
       <sz val="11"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill/>
     </fill>
@@ -92,12 +92,6 @@
         <bgColor rgb="00A020F0"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FF6400"/>
-        <bgColor rgb="00FF6400"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -125,7 +119,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -143,9 +137,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2518,7 +2509,7 @@
     <col width="14" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
     <col width="32" customWidth="1" min="4" max="4"/>
-    <col width="20" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
     <col width="27" customWidth="1" min="6" max="6"/>
     <col width="27" customWidth="1" min="7" max="7"/>
     <col width="87" customWidth="1" min="8" max="8"/>
@@ -2648,7 +2639,7 @@
       </c>
       <c r="E3" s="6" t="inlineStr">
         <is>
-          <t>Envio Duplicado</t>
+          <t>Duplicado</t>
         </is>
       </c>
       <c r="F3" s="3" t="inlineStr">
@@ -2783,7 +2774,7 @@
     <col width="14" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
     <col width="32" customWidth="1" min="4" max="4"/>
-    <col width="20" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
     <col width="27" customWidth="1" min="6" max="6"/>
     <col width="27" customWidth="1" min="7" max="7"/>
     <col width="87" customWidth="1" min="8" max="8"/>
@@ -2964,7 +2955,7 @@
       </c>
       <c r="E4" s="6" t="inlineStr">
         <is>
-          <t>Envio Duplicado</t>
+          <t>Duplicado</t>
         </is>
       </c>
       <c r="F4" s="3" t="inlineStr">
@@ -3145,12 +3136,16 @@
           <t>Ana Luiza de Araujo e Silva</t>
         </is>
       </c>
-      <c r="E2" s="7" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="n"/>
+      <c r="E2" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>12/05/2025</t>
+        </is>
+      </c>
       <c r="G2" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -3184,12 +3179,16 @@
           <t>Herlem Carlen Ferro</t>
         </is>
       </c>
-      <c r="E3" s="7" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F3" s="3" t="n"/>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t>10/05/2025</t>
+        </is>
+      </c>
       <c r="G3" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -3223,12 +3222,16 @@
           <t>Monica Goreth Costa Ribeiro</t>
         </is>
       </c>
-      <c r="E4" s="7" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F4" s="3" t="n"/>
+      <c r="E4" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F4" s="3" t="inlineStr">
+        <is>
+          <t>10/05/2025</t>
+        </is>
+      </c>
       <c r="G4" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -3262,12 +3265,16 @@
           <t>Thiago da Sailva Santos</t>
         </is>
       </c>
-      <c r="E5" s="7" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F5" s="3" t="n"/>
+      <c r="E5" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>09/05/2025</t>
+        </is>
+      </c>
       <c r="G5" s="5" t="inlineStr">
         <is>
           <t>Não</t>
